--- a/CSOF5103 Contratacion y Gerencia/0331SensibilidadTotal.xlsx
+++ b/CSOF5103 Contratacion y Gerencia/0331SensibilidadTotal.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9015" yWindow="-15" windowWidth="14655" windowHeight="10455"/>
+    <workbookView xWindow="9015" yWindow="-15" windowWidth="14655" windowHeight="10455" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>Estimacion</t>
   </si>
@@ -109,6 +112,12 @@
   </si>
   <si>
     <t>SITE</t>
+  </si>
+  <si>
+    <t>Minimo</t>
+  </si>
+  <si>
+    <t>Maximo</t>
   </si>
 </sst>
 </file>
@@ -498,11 +507,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="43634048"/>
-        <c:axId val="74909568"/>
+        <c:axId val="141380608"/>
+        <c:axId val="141395456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="43634048"/>
+        <c:axId val="141380608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,14 +539,14 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74909568"/>
+        <c:crossAx val="141395456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74909568"/>
+        <c:axId val="141395456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="145"/>
@@ -566,7 +575,7 @@
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43634048"/>
+        <c:crossAx val="141380608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -584,7 +593,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -615,7 +624,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1185,11 +1193,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="74955008"/>
-        <c:axId val="74957184"/>
+        <c:axId val="141563776"/>
+        <c:axId val="141578240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74955008"/>
+        <c:axId val="141563776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1212,19 +1220,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74957184"/>
+        <c:crossAx val="141578240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="74957184"/>
+        <c:axId val="141578240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="260"/>
@@ -1249,11 +1256,10 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74955008"/>
+        <c:crossAx val="141563776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1265,13 +1271,682 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="es-CO"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CO"/>
+              <a:t>Variacion de los multiplicadores de esfuerzo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimacion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$3:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>RELY</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DATA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CPLX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DOCU</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RUSE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>TIME</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>STOR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PVOL</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ACAP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>AEXP</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PCAP</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>PEXP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LTEX</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>PCON</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>TOOL</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SCED</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SITE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$B$3:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>123.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nominal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$3:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>RELY</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DATA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CPLX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DOCU</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RUSE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>TIME</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>STOR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PVOL</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ACAP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>AEXP</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PCAP</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>PEXP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LTEX</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>PCON</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>TOOL</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SCED</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SITE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$C$3:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.07</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>135.82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>130.1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>142.07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>145.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>140.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>140.44999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>135.82</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>135.82</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>152.59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>137.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>108.42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>132.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Minimo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$3:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>RELY</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DATA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CPLX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DOCU</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RUSE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>TIME</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>STOR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PVOL</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ACAP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>AEXP</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PCAP</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>PEXP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LTEX</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>PCON</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>TOOL</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SCED</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SITE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$D$3:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>101.352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>111.24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>103.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>110.01</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>123.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>206.48</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>171.35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>188.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>161.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>162.99</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>196.84</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160.68</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>155.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>162.13999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Maximo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$3:$A$19</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>RELY</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DATA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CPLX</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DOCU</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>RUSE</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>TIME</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>STOR</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>PVOL</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>ACAP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>AEXP</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>PCAP</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>PEXP</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>LTEX</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>PCON</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>TOOL</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>SCED</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SITE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$E$3:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>155.73589999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>158.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>247.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>167.06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>161.33000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>201.47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>180.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>184.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>103.24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>113.76</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>106.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>115.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>114.09</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>123.59</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>107.12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>108.42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>106.32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:marker val="1"/>
+        <c:axId val="84866176"/>
+        <c:axId val="84868096"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="84866176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Multiplicadores de Esfuerzo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84868096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="84868096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="80"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:minorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Dias</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> Hombre</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84866176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+      </c:dTable>
+      <c:spPr>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1340,6 +2015,376 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+      <sheetName val="Hoja2"/>
+      <sheetName val="Hoja3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Otro</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>Azul</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>Rojo</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Verde</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Estimacion</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>Nominal</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>Minimo</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Maximo</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>RELY</v>
+          </cell>
+          <cell r="B4">
+            <v>123.6</v>
+          </cell>
+          <cell r="C4">
+            <v>123.6</v>
+          </cell>
+          <cell r="D4">
+            <v>101.352</v>
+          </cell>
+          <cell r="E4">
+            <v>155.73589999999999</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>DATA</v>
+          </cell>
+          <cell r="B5">
+            <v>123.6</v>
+          </cell>
+          <cell r="C5">
+            <v>123.6</v>
+          </cell>
+          <cell r="D5">
+            <v>111.24</v>
+          </cell>
+          <cell r="E5">
+            <v>158.19999999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>CPLX</v>
+          </cell>
+          <cell r="B6">
+            <v>123.6</v>
+          </cell>
+          <cell r="C6">
+            <v>142.07</v>
+          </cell>
+          <cell r="D6">
+            <v>103.71</v>
+          </cell>
+          <cell r="E6">
+            <v>247.2</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>DOCU</v>
+          </cell>
+          <cell r="B7">
+            <v>123.6</v>
+          </cell>
+          <cell r="C7">
+            <v>135.82</v>
+          </cell>
+          <cell r="D7">
+            <v>110.01</v>
+          </cell>
+          <cell r="E7">
+            <v>167.06</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>RUSE</v>
+          </cell>
+          <cell r="B8">
+            <v>123.6</v>
+          </cell>
+          <cell r="C8">
+            <v>130.1</v>
+          </cell>
+          <cell r="D8">
+            <v>123.6</v>
+          </cell>
+          <cell r="E8">
+            <v>161.33000000000001</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>TIME</v>
+          </cell>
+          <cell r="B9">
+            <v>123.6</v>
+          </cell>
+          <cell r="C9">
+            <v>123.6</v>
+          </cell>
+          <cell r="D9">
+            <v>123.6</v>
+          </cell>
+          <cell r="E9">
+            <v>201.47</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>STOR</v>
+          </cell>
+          <cell r="B10">
+            <v>123.6</v>
+          </cell>
+          <cell r="C10">
+            <v>123.6</v>
+          </cell>
+          <cell r="D10">
+            <v>123.6</v>
+          </cell>
+          <cell r="E10">
+            <v>180.46</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>PVOL</v>
+          </cell>
+          <cell r="B11">
+            <v>123.6</v>
+          </cell>
+          <cell r="C11">
+            <v>142.07</v>
+          </cell>
+          <cell r="D11">
+            <v>123.6</v>
+          </cell>
+          <cell r="E11">
+            <v>184.69</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>ACAP</v>
+          </cell>
+          <cell r="B12">
+            <v>123.6</v>
+          </cell>
+          <cell r="C12">
+            <v>145.41</v>
+          </cell>
+          <cell r="D12">
+            <v>206.48</v>
+          </cell>
+          <cell r="E12">
+            <v>103.24</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>AEXP</v>
+          </cell>
+          <cell r="B13">
+            <v>123.6</v>
+          </cell>
+          <cell r="C13">
+            <v>140.44999999999999</v>
+          </cell>
+          <cell r="D13">
+            <v>171.35</v>
+          </cell>
+          <cell r="E13">
+            <v>113.76</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>PCAP</v>
+          </cell>
+          <cell r="B14">
+            <v>123.6</v>
+          </cell>
+          <cell r="C14">
+            <v>140.44999999999999</v>
+          </cell>
+          <cell r="D14">
+            <v>188.2</v>
+          </cell>
+          <cell r="E14">
+            <v>106.75</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>PEXP</v>
+          </cell>
+          <cell r="B15">
+            <v>123.6</v>
+          </cell>
+          <cell r="C15">
+            <v>135.82</v>
+          </cell>
+          <cell r="D15">
+            <v>161.63</v>
+          </cell>
+          <cell r="E15">
+            <v>115.45</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>LTEX</v>
+          </cell>
+          <cell r="B16">
+            <v>123.6</v>
+          </cell>
+          <cell r="C16">
+            <v>135.82</v>
+          </cell>
+          <cell r="D16">
+            <v>162.99</v>
+          </cell>
+          <cell r="E16">
+            <v>114.09</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>PCON</v>
+          </cell>
+          <cell r="B17">
+            <v>123.6</v>
+          </cell>
+          <cell r="C17">
+            <v>152.59</v>
+          </cell>
+          <cell r="D17">
+            <v>196.84</v>
+          </cell>
+          <cell r="E17">
+            <v>123.59</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>TOOL</v>
+          </cell>
+          <cell r="B18">
+            <v>123.6</v>
+          </cell>
+          <cell r="C18">
+            <v>137.33000000000001</v>
+          </cell>
+          <cell r="D18">
+            <v>160.68</v>
+          </cell>
+          <cell r="E18">
+            <v>107.12</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>SCED</v>
+          </cell>
+          <cell r="B19">
+            <v>123.6</v>
+          </cell>
+          <cell r="C19">
+            <v>108.42</v>
+          </cell>
+          <cell r="D19">
+            <v>155.04</v>
+          </cell>
+          <cell r="E19">
+            <v>108.42</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>SITE</v>
+          </cell>
+          <cell r="B20">
+            <v>123.6</v>
+          </cell>
+          <cell r="C20">
+            <v>132.9</v>
+          </cell>
+          <cell r="D20">
+            <v>162.13999999999999</v>
+          </cell>
+          <cell r="E20">
+            <v>106.32</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1629,7 +2674,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -1637,15 +2684,6 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26">
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
       <c r="T2" t="s">
         <v>1</v>
       </c>
@@ -2143,13 +3181,320 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="C3" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="D3">
+        <v>101.352</v>
+      </c>
+      <c r="E3">
+        <v>155.73589999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="C4" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="D4">
+        <v>111.24</v>
+      </c>
+      <c r="E4">
+        <v>158.19999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="C5">
+        <v>142.07</v>
+      </c>
+      <c r="D5">
+        <v>103.71</v>
+      </c>
+      <c r="E5">
+        <v>247.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="C6">
+        <v>135.82</v>
+      </c>
+      <c r="D6">
+        <v>110.01</v>
+      </c>
+      <c r="E6">
+        <v>167.06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>130.1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="E7">
+        <v>161.33000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="C8" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="D8" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="E8">
+        <v>201.47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="C9" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="D9" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="E9">
+        <v>180.46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="C10">
+        <v>142.07</v>
+      </c>
+      <c r="D10" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="E10">
+        <v>184.69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="C11">
+        <v>145.41</v>
+      </c>
+      <c r="D11">
+        <v>206.48</v>
+      </c>
+      <c r="E11">
+        <v>103.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="C12">
+        <v>140.44999999999999</v>
+      </c>
+      <c r="D12">
+        <v>171.35</v>
+      </c>
+      <c r="E12">
+        <v>113.76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="C13">
+        <v>140.44999999999999</v>
+      </c>
+      <c r="D13">
+        <v>188.2</v>
+      </c>
+      <c r="E13">
+        <v>106.75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="C14">
+        <v>135.82</v>
+      </c>
+      <c r="D14">
+        <v>161.63</v>
+      </c>
+      <c r="E14">
+        <v>115.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="C15">
+        <v>135.82</v>
+      </c>
+      <c r="D15">
+        <v>162.99</v>
+      </c>
+      <c r="E15">
+        <v>114.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="C16">
+        <v>152.59</v>
+      </c>
+      <c r="D16">
+        <v>196.84</v>
+      </c>
+      <c r="E16">
+        <v>123.59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="C17">
+        <v>137.33000000000001</v>
+      </c>
+      <c r="D17">
+        <v>160.68</v>
+      </c>
+      <c r="E17">
+        <v>107.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="C18">
+        <v>108.42</v>
+      </c>
+      <c r="D18">
+        <v>155.04</v>
+      </c>
+      <c r="E18">
+        <v>108.42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="5">
+        <v>123.6</v>
+      </c>
+      <c r="C19">
+        <v>132.9</v>
+      </c>
+      <c r="D19">
+        <v>162.13999999999999</v>
+      </c>
+      <c r="E19">
+        <v>106.32</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
